--- a/cypress/fixtures/WordPress_TestData.xlsx
+++ b/cypress/fixtures/WordPress_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFAAF4-F36C-4184-BED2-7FF0EC5485BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C4177-4ADC-4B8A-B0DC-9AF54737AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>vinothooty7</t>
   </si>
   <si>
-    <t>vinothtest2016@gmail.com</t>
-  </si>
-  <si>
     <t>xyz@gmail.com</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>urllink</t>
+  </si>
+  <si>
+    <t>vinothtest1189@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,21 +500,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -529,33 +529,33 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
